--- a/document/考试系统/考试系统用例表.xlsx
+++ b/document/考试系统/考试系统用例表.xlsx
@@ -20,33 +20,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t xml:space="preserve">用例名称</t>
   </si>
   <si>
+    <t xml:space="preserve">批改主观题</t>
+  </si>
+  <si>
     <t xml:space="preserve">描述</t>
   </si>
   <si>
+    <t xml:space="preserve">在考试完毕后，老师可以对某个班级中的所
+有主观题进行评分，给出相应的成绩。</t>
+  </si>
+  <si>
     <t xml:space="preserve">参与者</t>
   </si>
   <si>
+    <t xml:space="preserve">老师</t>
+  </si>
+  <si>
     <t xml:space="preserve">前置条件</t>
   </si>
   <si>
+    <t xml:space="preserve">教师登录系统，进入班级列表</t>
+  </si>
+  <si>
     <t xml:space="preserve">触发条件</t>
   </si>
   <si>
+    <t xml:space="preserve">点击批改主观题按钮</t>
+  </si>
+  <si>
     <t xml:space="preserve">主事件流</t>
   </si>
   <si>
+    <t xml:space="preserve">1.系统会列出该班级所有成员的主观题。
+2.老师对主观题进行审查，在题目的右上角
+     给出该学生的分数。
+3.老师批改完所有的主观题，点击返回。
+4.系统提示批改成功，重新回到列表界面，
+同时成绩单更新。</t>
+  </si>
+  <si>
     <t xml:space="preserve">可选事件流</t>
   </si>
   <si>
+    <t xml:space="preserve">1.在有题目没有批改的情况下，点击返回，
+系统提示仍有题目未批改。</t>
+  </si>
+  <si>
     <t xml:space="preserve">后置条件</t>
   </si>
   <si>
+    <t xml:space="preserve">系统给出新的班级成绩单。</t>
+  </si>
+  <si>
     <t xml:space="preserve">非功能需求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学生管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老师可以给班级添加学生，也可以操作已经
+添加的学生。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击添加学生按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.系统显示出一个列表，包括添加一个学生
+的基本信息。
+2.老师按照表单依次输入学生信息。
+3.点击保存按钮，系统提示保存成功。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.当有学生信息未输入，系统给出相应提示。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">系统返回班级界面，显示所有学生的列表。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">添加知识点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老师可以对该当前学科添加知识点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">教师登录系统，点击题库管理，显示添加
+知识点，添加题目。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击添加知识点按钮。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入添加知识点界面，系统列出需要添加
+的知识点信息。
+2.老师按表单添加知识点。
+3.点击保存。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.当老师输入不合法数据，系统给出提示。
+2.当老师有条目没有填写，系统给出提示。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">系统返回题库管理界面。</t>
   </si>
 </sst>
 </file>
@@ -61,6 +143,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -120,9 +203,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -142,63 +233,317 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="63.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="63.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
